--- a/attendance-files/FAuR/FAuR Attendance.xlsx
+++ b/attendance-files/FAuR/FAuR Attendance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="152">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="F7" s="30">
         <f t="shared" ref="F7:F62" si="2">COUNTIF(G7:Z7,"P")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G7" s="34" t="s">
         <v>39</v>
@@ -1491,8 +1491,12 @@
       <c r="R7" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
+      <c r="S7" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U7" s="37"/>
       <c r="V7" s="37"/>
       <c r="W7" s="37"/>
@@ -1514,11 +1518,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="34" t="s">
         <v>39</v>
@@ -1556,8 +1560,12 @@
       <c r="R8" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
+      <c r="S8" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U8" s="37"/>
       <c r="V8" s="37"/>
       <c r="W8" s="37"/>
@@ -1583,7 +1591,7 @@
       </c>
       <c r="F9" s="30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G9" s="34" t="s">
         <v>39</v>
@@ -1621,8 +1629,12 @@
       <c r="R9" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
+      <c r="S9" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U9" s="37"/>
       <c r="V9" s="37"/>
       <c r="W9" s="37"/>
@@ -1648,7 +1660,7 @@
       </c>
       <c r="F10" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10" s="34" t="s">
         <v>39</v>
@@ -1686,8 +1698,12 @@
       <c r="R10" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
+      <c r="S10" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U10" s="37"/>
       <c r="V10" s="37"/>
       <c r="W10" s="37"/>
@@ -1713,7 +1729,7 @@
       </c>
       <c r="F11" s="30">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G11" s="34" t="s">
         <v>41</v>
@@ -1751,8 +1767,12 @@
       <c r="R11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
+      <c r="S11" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U11" s="37"/>
       <c r="V11" s="37"/>
       <c r="W11" s="37"/>
@@ -1774,11 +1794,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" s="34" t="s">
         <v>39</v>
@@ -1816,8 +1836,12 @@
       <c r="R12" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
+      <c r="S12" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T12" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="U12" s="37"/>
       <c r="V12" s="37"/>
       <c r="W12" s="37"/>
@@ -1839,11 +1863,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13" s="34" t="s">
         <v>39</v>
@@ -1881,8 +1905,12 @@
       <c r="R13" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
+      <c r="S13" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T13" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="U13" s="37"/>
       <c r="V13" s="37"/>
       <c r="W13" s="37"/>
@@ -1908,7 +1936,7 @@
       </c>
       <c r="F14" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G14" s="34" t="s">
         <v>39</v>
@@ -1946,8 +1974,12 @@
       <c r="R14" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
+      <c r="S14" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T14" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U14" s="37"/>
       <c r="V14" s="37"/>
       <c r="W14" s="37"/>
@@ -1973,7 +2005,7 @@
       </c>
       <c r="F15" s="30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G15" s="34" t="s">
         <v>39</v>
@@ -2011,8 +2043,12 @@
       <c r="R15" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
+      <c r="S15" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T15" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U15" s="37"/>
       <c r="V15" s="37"/>
       <c r="W15" s="37"/>
@@ -2038,7 +2074,7 @@
       </c>
       <c r="F16" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G16" s="34" t="s">
         <v>39</v>
@@ -2076,8 +2112,12 @@
       <c r="R16" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
+      <c r="S16" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T16" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U16" s="37"/>
       <c r="V16" s="37"/>
       <c r="W16" s="37"/>
@@ -2103,7 +2143,7 @@
       </c>
       <c r="F17" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G17" s="34" t="s">
         <v>39</v>
@@ -2141,8 +2181,12 @@
       <c r="R17" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
+      <c r="S17" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T17" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U17" s="37"/>
       <c r="V17" s="37"/>
       <c r="W17" s="37"/>
@@ -2168,7 +2212,7 @@
       </c>
       <c r="F18" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G18" s="34" t="s">
         <v>39</v>
@@ -2206,8 +2250,12 @@
       <c r="R18" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
+      <c r="S18" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T18" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U18" s="37"/>
       <c r="V18" s="37"/>
       <c r="W18" s="37"/>
@@ -2233,7 +2281,7 @@
       </c>
       <c r="F19" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G19" s="34" t="s">
         <v>39</v>
@@ -2271,8 +2319,12 @@
       <c r="R19" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
+      <c r="S19" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T19" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U19" s="37"/>
       <c r="V19" s="37"/>
       <c r="W19" s="37"/>
@@ -2298,7 +2350,7 @@
       </c>
       <c r="F20" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G20" s="34" t="s">
         <v>39</v>
@@ -2336,8 +2388,12 @@
       <c r="R20" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
+      <c r="S20" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T20" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U20" s="37"/>
       <c r="V20" s="37"/>
       <c r="W20" s="37"/>
@@ -2363,7 +2419,7 @@
       </c>
       <c r="F21" s="30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G21" s="34" t="s">
         <v>39</v>
@@ -2401,8 +2457,12 @@
       <c r="R21" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
+      <c r="S21" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T21" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U21" s="37"/>
       <c r="V21" s="37"/>
       <c r="W21" s="37"/>
@@ -2428,7 +2488,7 @@
       </c>
       <c r="F22" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G22" s="34" t="s">
         <v>39</v>
@@ -2466,8 +2526,12 @@
       <c r="R22" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
+      <c r="S22" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T22" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U22" s="37"/>
       <c r="V22" s="37"/>
       <c r="W22" s="37"/>
@@ -2489,11 +2553,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" s="34" t="s">
         <v>39</v>
@@ -2531,8 +2595,12 @@
       <c r="R23" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
+      <c r="S23" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T23" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="U23" s="37"/>
       <c r="V23" s="37"/>
       <c r="W23" s="37"/>
@@ -2554,11 +2622,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" s="34" t="s">
         <v>39</v>
@@ -2596,8 +2664,12 @@
       <c r="R24" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
+      <c r="S24" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="T24" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U24" s="37"/>
       <c r="V24" s="37"/>
       <c r="W24" s="37"/>
@@ -2619,11 +2691,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G25" s="34" t="s">
         <v>39</v>
@@ -2661,8 +2733,12 @@
       <c r="R25" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
+      <c r="S25" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="T25" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U25" s="37"/>
       <c r="V25" s="37"/>
       <c r="W25" s="37"/>
@@ -2688,7 +2764,7 @@
       </c>
       <c r="F26" s="30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G26" s="34" t="s">
         <v>39</v>
@@ -2726,8 +2802,12 @@
       <c r="R26" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
+      <c r="S26" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T26" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U26" s="37"/>
       <c r="V26" s="37"/>
       <c r="W26" s="37"/>
@@ -2753,7 +2833,7 @@
       </c>
       <c r="F27" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G27" s="34" t="s">
         <v>39</v>
@@ -2791,8 +2871,12 @@
       <c r="R27" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
+      <c r="S27" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T27" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U27" s="37"/>
       <c r="V27" s="37"/>
       <c r="W27" s="37"/>
@@ -2814,11 +2898,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G28" s="34" t="s">
         <v>39</v>
@@ -2856,8 +2940,12 @@
       <c r="R28" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
+      <c r="S28" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T28" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="U28" s="37"/>
       <c r="V28" s="37"/>
       <c r="W28" s="37"/>
@@ -2883,7 +2971,7 @@
       </c>
       <c r="F29" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G29" s="34" t="s">
         <v>39</v>
@@ -2921,8 +3009,12 @@
       <c r="R29" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
+      <c r="S29" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T29" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U29" s="37"/>
       <c r="V29" s="37"/>
       <c r="W29" s="37"/>
@@ -2948,7 +3040,7 @@
       </c>
       <c r="F30" s="30">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G30" s="34" t="s">
         <v>39</v>
@@ -2986,8 +3078,12 @@
       <c r="R30" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
+      <c r="S30" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T30" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U30" s="37"/>
       <c r="V30" s="37"/>
       <c r="W30" s="37"/>
@@ -3009,11 +3105,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" s="34" t="s">
         <v>39</v>
@@ -3051,8 +3147,12 @@
       <c r="R31" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
+      <c r="S31" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="T31" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U31" s="37"/>
       <c r="V31" s="37"/>
       <c r="W31" s="37"/>
@@ -3074,11 +3174,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G32" s="34" t="s">
         <v>39</v>
@@ -3108,7 +3208,7 @@
         <v>40</v>
       </c>
       <c r="P32" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q32" s="36" t="s">
         <v>40</v>
@@ -3116,8 +3216,12 @@
       <c r="R32" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
+      <c r="S32" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T32" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U32" s="37"/>
       <c r="V32" s="37"/>
       <c r="W32" s="37"/>
@@ -3139,11 +3243,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G33" s="34" t="s">
         <v>39</v>
@@ -3181,8 +3285,12 @@
       <c r="R33" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
+      <c r="S33" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T33" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="U33" s="37"/>
       <c r="V33" s="37"/>
       <c r="W33" s="37"/>
@@ -3208,7 +3316,7 @@
       </c>
       <c r="F34" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G34" s="34" t="s">
         <v>39</v>
@@ -3246,8 +3354,12 @@
       <c r="R34" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
+      <c r="S34" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T34" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U34" s="37"/>
       <c r="V34" s="37"/>
       <c r="W34" s="37"/>
@@ -3269,11 +3381,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G35" s="34" t="s">
         <v>39</v>
@@ -3311,8 +3423,12 @@
       <c r="R35" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
+      <c r="S35" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T35" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="U35" s="37"/>
       <c r="V35" s="37"/>
       <c r="W35" s="37"/>
@@ -3338,7 +3454,7 @@
       </c>
       <c r="F36" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G36" s="34" t="s">
         <v>39</v>
@@ -3376,8 +3492,12 @@
       <c r="R36" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
+      <c r="S36" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T36" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U36" s="37"/>
       <c r="V36" s="37"/>
       <c r="W36" s="37"/>
@@ -3403,7 +3523,7 @@
       </c>
       <c r="F37" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G37" s="34" t="s">
         <v>39</v>
@@ -3441,8 +3561,12 @@
       <c r="R37" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
+      <c r="S37" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T37" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U37" s="37"/>
       <c r="V37" s="37"/>
       <c r="W37" s="37"/>
@@ -3468,7 +3592,7 @@
       </c>
       <c r="F38" s="30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G38" s="34" t="s">
         <v>39</v>
@@ -3506,8 +3630,12 @@
       <c r="R38" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
+      <c r="S38" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T38" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U38" s="37"/>
       <c r="V38" s="37"/>
       <c r="W38" s="37"/>
@@ -3529,11 +3657,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" s="30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G39" s="34" t="s">
         <v>39</v>
@@ -3571,8 +3699,12 @@
       <c r="R39" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
+      <c r="S39" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="T39" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U39" s="37"/>
       <c r="V39" s="37"/>
       <c r="W39" s="37"/>
@@ -3594,11 +3726,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G40" s="34" t="s">
         <v>39</v>
@@ -3636,8 +3768,12 @@
       <c r="R40" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
+      <c r="S40" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T40" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="U40" s="37"/>
       <c r="V40" s="37"/>
       <c r="W40" s="37"/>
@@ -3663,7 +3799,7 @@
       </c>
       <c r="F41" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G41" s="34" t="s">
         <v>39</v>
@@ -3701,8 +3837,12 @@
       <c r="R41" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
+      <c r="S41" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T41" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U41" s="37"/>
       <c r="V41" s="37"/>
       <c r="W41" s="37"/>
@@ -3728,7 +3868,7 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G42" s="34" t="s">
         <v>39</v>
@@ -3766,8 +3906,12 @@
       <c r="R42" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S42" s="37"/>
-      <c r="T42" s="37"/>
+      <c r="S42" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T42" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U42" s="37"/>
       <c r="V42" s="37"/>
       <c r="W42" s="37"/>
@@ -3789,11 +3933,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F43" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G43" s="34" t="s">
         <v>39</v>
@@ -3831,8 +3975,12 @@
       <c r="R43" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S43" s="37"/>
-      <c r="T43" s="37"/>
+      <c r="S43" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="T43" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U43" s="37"/>
       <c r="V43" s="37"/>
       <c r="W43" s="37"/>
@@ -3858,7 +4006,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G44" s="34" t="s">
         <v>39</v>
@@ -3896,8 +4044,12 @@
       <c r="R44" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="S44" s="37"/>
-      <c r="T44" s="37"/>
+      <c r="S44" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T44" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U44" s="37"/>
       <c r="V44" s="37"/>
       <c r="W44" s="37"/>
@@ -3923,7 +4075,7 @@
       </c>
       <c r="F45" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G45" s="34" t="s">
         <v>39</v>
@@ -3961,8 +4113,12 @@
       <c r="R45" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S45" s="37"/>
-      <c r="T45" s="37"/>
+      <c r="S45" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T45" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U45" s="37"/>
       <c r="V45" s="37"/>
       <c r="W45" s="37"/>
@@ -3988,7 +4144,7 @@
       </c>
       <c r="F46" s="30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G46" s="34" t="s">
         <v>39</v>
@@ -4026,8 +4182,12 @@
       <c r="R46" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37"/>
+      <c r="S46" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T46" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U46" s="37"/>
       <c r="V46" s="37"/>
       <c r="W46" s="37"/>
@@ -4053,7 +4213,7 @@
       </c>
       <c r="F47" s="30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G47" s="34" t="s">
         <v>39</v>
@@ -4091,8 +4251,12 @@
       <c r="R47" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37"/>
+      <c r="S47" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T47" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U47" s="37"/>
       <c r="V47" s="37"/>
       <c r="W47" s="37"/>
@@ -4118,7 +4282,7 @@
       </c>
       <c r="F48" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G48" s="34" t="s">
         <v>39</v>
@@ -4156,8 +4320,12 @@
       <c r="R48" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="S48" s="37"/>
-      <c r="T48" s="37"/>
+      <c r="S48" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T48" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U48" s="37"/>
       <c r="V48" s="37"/>
       <c r="W48" s="37"/>
@@ -4183,7 +4351,7 @@
       </c>
       <c r="F49" s="30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G49" s="34" t="s">
         <v>39</v>
@@ -4221,8 +4389,12 @@
       <c r="R49" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="S49" s="37"/>
-      <c r="T49" s="37"/>
+      <c r="S49" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T49" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U49" s="37"/>
       <c r="V49" s="37"/>
       <c r="W49" s="37"/>
@@ -4248,7 +4420,7 @@
       </c>
       <c r="F50" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G50" s="34" t="s">
         <v>39</v>
@@ -4286,8 +4458,12 @@
       <c r="R50" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S50" s="37"/>
-      <c r="T50" s="37"/>
+      <c r="S50" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T50" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U50" s="37"/>
       <c r="V50" s="37"/>
       <c r="W50" s="37"/>
@@ -4313,7 +4489,7 @@
       </c>
       <c r="F51" s="30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G51" s="34" t="s">
         <v>39</v>
@@ -4351,8 +4527,12 @@
       <c r="R51" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S51" s="37"/>
-      <c r="T51" s="37"/>
+      <c r="S51" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T51" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U51" s="37"/>
       <c r="V51" s="37"/>
       <c r="W51" s="37"/>
@@ -4378,7 +4558,7 @@
       </c>
       <c r="F52" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G52" s="34" t="s">
         <v>39</v>
@@ -4416,8 +4596,12 @@
       <c r="R52" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S52" s="37"/>
-      <c r="T52" s="37"/>
+      <c r="S52" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T52" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U52" s="37"/>
       <c r="V52" s="37"/>
       <c r="W52" s="37"/>
@@ -4439,7 +4623,7 @@
       <c r="D53" s="33"/>
       <c r="E53" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53" s="30">
         <f t="shared" si="2"/>
@@ -4481,8 +4665,12 @@
       <c r="R53" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S53" s="37"/>
-      <c r="T53" s="37"/>
+      <c r="S53" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="T53" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="U53" s="37"/>
       <c r="V53" s="37"/>
       <c r="W53" s="37"/>
@@ -4504,11 +4692,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G54" s="34" t="s">
         <v>39</v>
@@ -4546,8 +4734,12 @@
       <c r="R54" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S54" s="37"/>
-      <c r="T54" s="37"/>
+      <c r="S54" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="T54" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U54" s="37"/>
       <c r="V54" s="37"/>
       <c r="W54" s="37"/>
@@ -4573,7 +4765,7 @@
       </c>
       <c r="F55" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G55" s="34" t="s">
         <v>39</v>
@@ -4611,8 +4803,12 @@
       <c r="R55" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S55" s="37"/>
-      <c r="T55" s="37"/>
+      <c r="S55" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T55" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U55" s="37"/>
       <c r="V55" s="37"/>
       <c r="W55" s="37"/>
@@ -4638,7 +4834,7 @@
       </c>
       <c r="F56" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G56" s="34" t="s">
         <v>39</v>
@@ -4676,8 +4872,12 @@
       <c r="R56" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S56" s="37"/>
-      <c r="T56" s="37"/>
+      <c r="S56" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T56" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U56" s="37"/>
       <c r="V56" s="37"/>
       <c r="W56" s="37"/>
@@ -4703,7 +4903,7 @@
       </c>
       <c r="F57" s="30">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G57" s="34" t="s">
         <v>39</v>
@@ -4741,8 +4941,12 @@
       <c r="R57" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S57" s="37"/>
-      <c r="T57" s="37"/>
+      <c r="S57" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T57" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U57" s="37"/>
       <c r="V57" s="37"/>
       <c r="W57" s="37"/>
@@ -4768,7 +4972,7 @@
       </c>
       <c r="F58" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G58" s="34" t="s">
         <v>39</v>
@@ -4806,8 +5010,12 @@
       <c r="R58" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S58" s="37"/>
-      <c r="T58" s="37"/>
+      <c r="S58" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T58" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U58" s="37"/>
       <c r="V58" s="37"/>
       <c r="W58" s="37"/>
@@ -4833,7 +5041,7 @@
       </c>
       <c r="F59" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G59" s="34" t="s">
         <v>39</v>
@@ -4871,8 +5079,12 @@
       <c r="R59" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S59" s="37"/>
-      <c r="T59" s="37"/>
+      <c r="S59" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T59" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U59" s="37"/>
       <c r="V59" s="37"/>
       <c r="W59" s="37"/>
@@ -4898,7 +5110,7 @@
       </c>
       <c r="F60" s="30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G60" s="34" t="s">
         <v>39</v>
@@ -4936,8 +5148,12 @@
       <c r="R60" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="S60" s="37"/>
-      <c r="T60" s="37"/>
+      <c r="S60" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T60" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U60" s="37"/>
       <c r="V60" s="37"/>
       <c r="W60" s="37"/>
@@ -4963,7 +5179,7 @@
       </c>
       <c r="F61" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G61" s="34" t="s">
         <v>39</v>
@@ -5001,8 +5217,12 @@
       <c r="R61" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S61" s="37"/>
-      <c r="T61" s="37"/>
+      <c r="S61" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T61" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U61" s="37"/>
       <c r="V61" s="37"/>
       <c r="W61" s="37"/>
@@ -5028,7 +5248,7 @@
       </c>
       <c r="F62" s="30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G62" s="34" t="s">
         <v>39</v>
@@ -5066,8 +5286,12 @@
       <c r="R62" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S62" s="37"/>
-      <c r="T62" s="37"/>
+      <c r="S62" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T62" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="U62" s="37"/>
       <c r="V62" s="37"/>
       <c r="W62" s="37"/>

--- a/attendance-files/FAuR/FAuR Attendance.xlsx
+++ b/attendance-files/FAuR/FAuR Attendance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="152">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1449,11 +1449,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="30">
         <f t="shared" ref="E7:E62" si="1">COUNTIF(G7:Z7,"A")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="30">
         <f t="shared" ref="F7:F62" si="2">COUNTIF(G7:Z7,"P")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" s="34" t="s">
         <v>39</v>
@@ -1497,8 +1497,12 @@
       <c r="T7" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
+      <c r="U7" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V7" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="W7" s="37"/>
       <c r="X7" s="37"/>
       <c r="Y7" s="37"/>
@@ -1518,11 +1522,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="30">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" s="34" t="s">
         <v>39</v>
@@ -1566,8 +1570,12 @@
       <c r="T8" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
+      <c r="U8" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V8" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="W8" s="37"/>
       <c r="X8" s="37"/>
       <c r="Y8" s="37"/>
@@ -1591,7 +1599,7 @@
       </c>
       <c r="F9" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" s="34" t="s">
         <v>39</v>
@@ -1635,8 +1643,12 @@
       <c r="T9" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
+      <c r="U9" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W9" s="37"/>
       <c r="X9" s="37"/>
       <c r="Y9" s="37"/>
@@ -1660,7 +1672,7 @@
       </c>
       <c r="F10" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G10" s="34" t="s">
         <v>39</v>
@@ -1704,8 +1716,12 @@
       <c r="T10" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
+      <c r="U10" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W10" s="37"/>
       <c r="X10" s="37"/>
       <c r="Y10" s="37"/>
@@ -1729,7 +1745,7 @@
       </c>
       <c r="F11" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G11" s="34" t="s">
         <v>41</v>
@@ -1773,8 +1789,12 @@
       <c r="T11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
+      <c r="U11" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V11" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W11" s="37"/>
       <c r="X11" s="37"/>
       <c r="Y11" s="37"/>
@@ -1798,7 +1818,7 @@
       </c>
       <c r="F12" s="30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G12" s="34" t="s">
         <v>39</v>
@@ -1842,8 +1862,12 @@
       <c r="T12" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
+      <c r="U12" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V12" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W12" s="37"/>
       <c r="X12" s="37"/>
       <c r="Y12" s="37"/>
@@ -1867,7 +1891,7 @@
       </c>
       <c r="F13" s="30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13" s="34" t="s">
         <v>39</v>
@@ -1911,8 +1935,12 @@
       <c r="T13" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
+      <c r="U13" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V13" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W13" s="37"/>
       <c r="X13" s="37"/>
       <c r="Y13" s="37"/>
@@ -1932,11 +1960,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" s="34" t="s">
         <v>39</v>
@@ -1980,8 +2008,12 @@
       <c r="T14" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
+      <c r="U14" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V14" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="W14" s="37"/>
       <c r="X14" s="37"/>
       <c r="Y14" s="37"/>
@@ -2005,7 +2037,7 @@
       </c>
       <c r="F15" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G15" s="34" t="s">
         <v>39</v>
@@ -2049,8 +2081,12 @@
       <c r="T15" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
+      <c r="U15" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V15" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W15" s="37"/>
       <c r="X15" s="37"/>
       <c r="Y15" s="37"/>
@@ -2074,7 +2110,7 @@
       </c>
       <c r="F16" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G16" s="34" t="s">
         <v>39</v>
@@ -2118,8 +2154,12 @@
       <c r="T16" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
+      <c r="U16" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V16" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W16" s="37"/>
       <c r="X16" s="37"/>
       <c r="Y16" s="37"/>
@@ -2143,7 +2183,7 @@
       </c>
       <c r="F17" s="30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G17" s="34" t="s">
         <v>39</v>
@@ -2187,8 +2227,12 @@
       <c r="T17" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
+      <c r="U17" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V17" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W17" s="37"/>
       <c r="X17" s="37"/>
       <c r="Y17" s="37"/>
@@ -2212,7 +2256,7 @@
       </c>
       <c r="F18" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G18" s="34" t="s">
         <v>39</v>
@@ -2256,8 +2300,12 @@
       <c r="T18" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
+      <c r="U18" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V18" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W18" s="37"/>
       <c r="X18" s="37"/>
       <c r="Y18" s="37"/>
@@ -2281,7 +2329,7 @@
       </c>
       <c r="F19" s="30">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G19" s="34" t="s">
         <v>39</v>
@@ -2325,8 +2373,12 @@
       <c r="T19" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
+      <c r="U19" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V19" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W19" s="37"/>
       <c r="X19" s="37"/>
       <c r="Y19" s="37"/>
@@ -2346,7 +2398,7 @@
       <c r="D20" s="33"/>
       <c r="E20" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" s="30">
         <f t="shared" si="2"/>
@@ -2394,8 +2446,12 @@
       <c r="T20" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
+      <c r="U20" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="V20" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="W20" s="37"/>
       <c r="X20" s="37"/>
       <c r="Y20" s="37"/>
@@ -2419,7 +2475,7 @@
       </c>
       <c r="F21" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G21" s="34" t="s">
         <v>39</v>
@@ -2463,8 +2519,12 @@
       <c r="T21" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
+      <c r="U21" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V21" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W21" s="37"/>
       <c r="X21" s="37"/>
       <c r="Y21" s="37"/>
@@ -2488,7 +2548,7 @@
       </c>
       <c r="F22" s="30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G22" s="34" t="s">
         <v>39</v>
@@ -2532,8 +2592,12 @@
       <c r="T22" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
+      <c r="U22" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V22" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W22" s="37"/>
       <c r="X22" s="37"/>
       <c r="Y22" s="37"/>
@@ -2553,11 +2617,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="30">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" s="34" t="s">
         <v>39</v>
@@ -2601,8 +2665,12 @@
       <c r="T23" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
+      <c r="U23" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V23" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="W23" s="37"/>
       <c r="X23" s="37"/>
       <c r="Y23" s="37"/>
@@ -2622,11 +2690,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" s="34" t="s">
         <v>39</v>
@@ -2670,8 +2738,12 @@
       <c r="T24" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
+      <c r="U24" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V24" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="W24" s="37"/>
       <c r="X24" s="37"/>
       <c r="Y24" s="37"/>
@@ -2695,7 +2767,7 @@
       </c>
       <c r="F25" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G25" s="34" t="s">
         <v>39</v>
@@ -2739,8 +2811,12 @@
       <c r="T25" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
+      <c r="U25" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V25" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W25" s="37"/>
       <c r="X25" s="37"/>
       <c r="Y25" s="37"/>
@@ -2764,7 +2840,7 @@
       </c>
       <c r="F26" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G26" s="34" t="s">
         <v>39</v>
@@ -2808,8 +2884,12 @@
       <c r="T26" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
+      <c r="U26" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V26" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W26" s="37"/>
       <c r="X26" s="37"/>
       <c r="Y26" s="37"/>
@@ -2833,7 +2913,7 @@
       </c>
       <c r="F27" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G27" s="34" t="s">
         <v>39</v>
@@ -2877,8 +2957,12 @@
       <c r="T27" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
+      <c r="U27" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V27" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W27" s="37"/>
       <c r="X27" s="37"/>
       <c r="Y27" s="37"/>
@@ -2902,7 +2986,7 @@
       </c>
       <c r="F28" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G28" s="34" t="s">
         <v>39</v>
@@ -2946,8 +3030,12 @@
       <c r="T28" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
+      <c r="U28" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V28" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W28" s="37"/>
       <c r="X28" s="37"/>
       <c r="Y28" s="37"/>
@@ -2967,7 +3055,7 @@
       <c r="D29" s="33"/>
       <c r="E29" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" s="30">
         <f t="shared" si="2"/>
@@ -3015,8 +3103,12 @@
       <c r="T29" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
+      <c r="U29" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="V29" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="W29" s="37"/>
       <c r="X29" s="37"/>
       <c r="Y29" s="37"/>
@@ -3040,7 +3132,7 @@
       </c>
       <c r="F30" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G30" s="34" t="s">
         <v>39</v>
@@ -3084,8 +3176,12 @@
       <c r="T30" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
+      <c r="U30" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V30" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W30" s="37"/>
       <c r="X30" s="37"/>
       <c r="Y30" s="37"/>
@@ -3105,11 +3201,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="30">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G31" s="34" t="s">
         <v>39</v>
@@ -3153,8 +3249,12 @@
       <c r="T31" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
+      <c r="U31" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V31" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="W31" s="37"/>
       <c r="X31" s="37"/>
       <c r="Y31" s="37"/>
@@ -3178,7 +3278,7 @@
       </c>
       <c r="F32" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G32" s="34" t="s">
         <v>39</v>
@@ -3222,8 +3322,12 @@
       <c r="T32" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
+      <c r="U32" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V32" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W32" s="37"/>
       <c r="X32" s="37"/>
       <c r="Y32" s="37"/>
@@ -3247,7 +3351,7 @@
       </c>
       <c r="F33" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G33" s="34" t="s">
         <v>39</v>
@@ -3291,8 +3395,12 @@
       <c r="T33" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
+      <c r="U33" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V33" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W33" s="37"/>
       <c r="X33" s="37"/>
       <c r="Y33" s="37"/>
@@ -3316,7 +3424,7 @@
       </c>
       <c r="F34" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G34" s="34" t="s">
         <v>39</v>
@@ -3360,8 +3468,12 @@
       <c r="T34" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
+      <c r="U34" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V34" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W34" s="37"/>
       <c r="X34" s="37"/>
       <c r="Y34" s="37"/>
@@ -3381,11 +3493,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" s="34" t="s">
         <v>39</v>
@@ -3429,8 +3541,12 @@
       <c r="T35" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
+      <c r="U35" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="V35" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W35" s="37"/>
       <c r="X35" s="37"/>
       <c r="Y35" s="37"/>
@@ -3454,7 +3570,7 @@
       </c>
       <c r="F36" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G36" s="34" t="s">
         <v>39</v>
@@ -3498,8 +3614,12 @@
       <c r="T36" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
+      <c r="U36" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V36" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W36" s="37"/>
       <c r="X36" s="37"/>
       <c r="Y36" s="37"/>
@@ -3519,7 +3639,7 @@
       <c r="D37" s="33"/>
       <c r="E37" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F37" s="30">
         <f t="shared" si="2"/>
@@ -3567,8 +3687,12 @@
       <c r="T37" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
+      <c r="U37" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="V37" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="W37" s="37"/>
       <c r="X37" s="37"/>
       <c r="Y37" s="37"/>
@@ -3592,7 +3716,7 @@
       </c>
       <c r="F38" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G38" s="34" t="s">
         <v>39</v>
@@ -3636,8 +3760,12 @@
       <c r="T38" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
+      <c r="U38" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V38" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W38" s="37"/>
       <c r="X38" s="37"/>
       <c r="Y38" s="37"/>
@@ -3661,7 +3789,7 @@
       </c>
       <c r="F39" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G39" s="34" t="s">
         <v>39</v>
@@ -3705,8 +3833,12 @@
       <c r="T39" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
+      <c r="U39" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V39" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W39" s="37"/>
       <c r="X39" s="37"/>
       <c r="Y39" s="37"/>
@@ -3730,7 +3862,7 @@
       </c>
       <c r="F40" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G40" s="34" t="s">
         <v>39</v>
@@ -3774,8 +3906,12 @@
       <c r="T40" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
+      <c r="U40" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W40" s="37"/>
       <c r="X40" s="37"/>
       <c r="Y40" s="37"/>
@@ -3799,7 +3935,7 @@
       </c>
       <c r="F41" s="30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G41" s="34" t="s">
         <v>39</v>
@@ -3843,8 +3979,12 @@
       <c r="T41" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U41" s="37"/>
-      <c r="V41" s="37"/>
+      <c r="U41" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V41" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W41" s="37"/>
       <c r="X41" s="37"/>
       <c r="Y41" s="37"/>
@@ -3868,7 +4008,7 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G42" s="34" t="s">
         <v>39</v>
@@ -3912,8 +4052,12 @@
       <c r="T42" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U42" s="37"/>
-      <c r="V42" s="37"/>
+      <c r="U42" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V42" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W42" s="37"/>
       <c r="X42" s="37"/>
       <c r="Y42" s="37"/>
@@ -3937,7 +4081,7 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G43" s="34" t="s">
         <v>39</v>
@@ -3981,8 +4125,12 @@
       <c r="T43" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U43" s="37"/>
-      <c r="V43" s="37"/>
+      <c r="U43" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V43" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W43" s="37"/>
       <c r="X43" s="37"/>
       <c r="Y43" s="37"/>
@@ -4006,7 +4154,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G44" s="34" t="s">
         <v>39</v>
@@ -4050,8 +4198,12 @@
       <c r="T44" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U44" s="37"/>
-      <c r="V44" s="37"/>
+      <c r="U44" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V44" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W44" s="37"/>
       <c r="X44" s="37"/>
       <c r="Y44" s="37"/>
@@ -4075,7 +4227,7 @@
       </c>
       <c r="F45" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G45" s="34" t="s">
         <v>39</v>
@@ -4119,8 +4271,12 @@
       <c r="T45" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37"/>
+      <c r="U45" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V45" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W45" s="37"/>
       <c r="X45" s="37"/>
       <c r="Y45" s="37"/>
@@ -4140,7 +4296,7 @@
       <c r="D46" s="33"/>
       <c r="E46" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F46" s="30">
         <f t="shared" si="2"/>
@@ -4188,8 +4344,12 @@
       <c r="T46" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U46" s="37"/>
-      <c r="V46" s="37"/>
+      <c r="U46" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="V46" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="W46" s="37"/>
       <c r="X46" s="37"/>
       <c r="Y46" s="37"/>
@@ -4213,7 +4373,7 @@
       </c>
       <c r="F47" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G47" s="34" t="s">
         <v>39</v>
@@ -4257,8 +4417,12 @@
       <c r="T47" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37"/>
+      <c r="U47" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V47" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W47" s="37"/>
       <c r="X47" s="37"/>
       <c r="Y47" s="37"/>
@@ -4282,7 +4446,7 @@
       </c>
       <c r="F48" s="30">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G48" s="34" t="s">
         <v>39</v>
@@ -4326,8 +4490,12 @@
       <c r="T48" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U48" s="37"/>
-      <c r="V48" s="37"/>
+      <c r="U48" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V48" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W48" s="37"/>
       <c r="X48" s="37"/>
       <c r="Y48" s="37"/>
@@ -4351,7 +4519,7 @@
       </c>
       <c r="F49" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G49" s="34" t="s">
         <v>39</v>
@@ -4395,8 +4563,12 @@
       <c r="T49" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U49" s="37"/>
-      <c r="V49" s="37"/>
+      <c r="U49" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V49" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W49" s="37"/>
       <c r="X49" s="37"/>
       <c r="Y49" s="37"/>
@@ -4420,7 +4592,7 @@
       </c>
       <c r="F50" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G50" s="34" t="s">
         <v>39</v>
@@ -4464,8 +4636,12 @@
       <c r="T50" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U50" s="37"/>
-      <c r="V50" s="37"/>
+      <c r="U50" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V50" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W50" s="37"/>
       <c r="X50" s="37"/>
       <c r="Y50" s="37"/>
@@ -4489,7 +4665,7 @@
       </c>
       <c r="F51" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G51" s="34" t="s">
         <v>39</v>
@@ -4533,8 +4709,12 @@
       <c r="T51" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U51" s="37"/>
-      <c r="V51" s="37"/>
+      <c r="U51" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V51" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W51" s="37"/>
       <c r="X51" s="37"/>
       <c r="Y51" s="37"/>
@@ -4554,7 +4734,7 @@
       <c r="D52" s="33"/>
       <c r="E52" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F52" s="30">
         <f t="shared" si="2"/>
@@ -4602,8 +4782,12 @@
       <c r="T52" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U52" s="37"/>
-      <c r="V52" s="37"/>
+      <c r="U52" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="V52" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="W52" s="37"/>
       <c r="X52" s="37"/>
       <c r="Y52" s="37"/>
@@ -4627,7 +4811,7 @@
       </c>
       <c r="F53" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G53" s="34" t="s">
         <v>39</v>
@@ -4671,8 +4855,12 @@
       <c r="T53" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="U53" s="37"/>
-      <c r="V53" s="37"/>
+      <c r="U53" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V53" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W53" s="37"/>
       <c r="X53" s="37"/>
       <c r="Y53" s="37"/>
@@ -4696,7 +4884,7 @@
       </c>
       <c r="F54" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G54" s="34" t="s">
         <v>39</v>
@@ -4740,8 +4928,12 @@
       <c r="T54" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U54" s="37"/>
-      <c r="V54" s="37"/>
+      <c r="U54" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V54" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W54" s="37"/>
       <c r="X54" s="37"/>
       <c r="Y54" s="37"/>
@@ -4765,7 +4957,7 @@
       </c>
       <c r="F55" s="30">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G55" s="34" t="s">
         <v>39</v>
@@ -4809,8 +5001,12 @@
       <c r="T55" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U55" s="37"/>
-      <c r="V55" s="37"/>
+      <c r="U55" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V55" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W55" s="37"/>
       <c r="X55" s="37"/>
       <c r="Y55" s="37"/>
@@ -4834,7 +5030,7 @@
       </c>
       <c r="F56" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G56" s="34" t="s">
         <v>39</v>
@@ -4878,8 +5074,12 @@
       <c r="T56" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U56" s="37"/>
-      <c r="V56" s="37"/>
+      <c r="U56" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V56" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W56" s="37"/>
       <c r="X56" s="37"/>
       <c r="Y56" s="37"/>
@@ -4903,7 +5103,7 @@
       </c>
       <c r="F57" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G57" s="34" t="s">
         <v>39</v>
@@ -4947,8 +5147,12 @@
       <c r="T57" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U57" s="37"/>
-      <c r="V57" s="37"/>
+      <c r="U57" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V57" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W57" s="37"/>
       <c r="X57" s="37"/>
       <c r="Y57" s="37"/>
@@ -4968,11 +5172,11 @@
       <c r="D58" s="33"/>
       <c r="E58" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" s="30">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G58" s="34" t="s">
         <v>39</v>
@@ -5016,8 +5220,12 @@
       <c r="T58" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U58" s="37"/>
-      <c r="V58" s="37"/>
+      <c r="U58" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="V58" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W58" s="37"/>
       <c r="X58" s="37"/>
       <c r="Y58" s="37"/>
@@ -5041,7 +5249,7 @@
       </c>
       <c r="F59" s="30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G59" s="34" t="s">
         <v>39</v>
@@ -5085,8 +5293,12 @@
       <c r="T59" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U59" s="37"/>
-      <c r="V59" s="37"/>
+      <c r="U59" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V59" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W59" s="37"/>
       <c r="X59" s="37"/>
       <c r="Y59" s="37"/>
@@ -5110,7 +5322,7 @@
       </c>
       <c r="F60" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G60" s="34" t="s">
         <v>39</v>
@@ -5154,8 +5366,12 @@
       <c r="T60" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U60" s="37"/>
-      <c r="V60" s="37"/>
+      <c r="U60" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V60" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W60" s="37"/>
       <c r="X60" s="37"/>
       <c r="Y60" s="37"/>
@@ -5179,7 +5395,7 @@
       </c>
       <c r="F61" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G61" s="34" t="s">
         <v>39</v>
@@ -5223,8 +5439,12 @@
       <c r="T61" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U61" s="37"/>
-      <c r="V61" s="37"/>
+      <c r="U61" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V61" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W61" s="37"/>
       <c r="X61" s="37"/>
       <c r="Y61" s="37"/>
@@ -5248,7 +5468,7 @@
       </c>
       <c r="F62" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G62" s="34" t="s">
         <v>39</v>
@@ -5292,8 +5512,12 @@
       <c r="T62" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="U62" s="37"/>
-      <c r="V62" s="37"/>
+      <c r="U62" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="V62" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="W62" s="37"/>
       <c r="X62" s="37"/>
       <c r="Y62" s="37"/>

--- a/attendance-files/FAuR/FAuR Attendance.xlsx
+++ b/attendance-files/FAuR/FAuR Attendance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="152">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -924,9 +924,6 @@
     <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="18" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -935,6 +932,9 @@
     </xf>
     <xf borderId="18" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -1449,11 +1449,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="30">
         <f t="shared" ref="E7:E62" si="1">COUNTIF(G7:Z7,"A")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="30">
         <f t="shared" ref="F7:F62" si="2">COUNTIF(G7:Z7,"P")</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G7" s="34" t="s">
         <v>39</v>
@@ -1503,10 +1503,18 @@
       <c r="V7" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
+      <c r="W7" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z7" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA7" s="19"/>
     </row>
     <row r="8">
@@ -1522,11 +1530,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8" s="34" t="s">
         <v>39</v>
@@ -1576,10 +1584,18 @@
       <c r="V8" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
+      <c r="W8" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="X8" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y8" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z8" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA8" s="19"/>
     </row>
     <row r="9">
@@ -1599,7 +1615,7 @@
       </c>
       <c r="F9" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G9" s="34" t="s">
         <v>39</v>
@@ -1649,10 +1665,18 @@
       <c r="V9" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
+      <c r="W9" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X9" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z9" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA9" s="19"/>
     </row>
     <row r="10">
@@ -1672,7 +1696,7 @@
       </c>
       <c r="F10" s="30">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G10" s="34" t="s">
         <v>39</v>
@@ -1722,10 +1746,18 @@
       <c r="V10" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
+      <c r="W10" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X10" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z10" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA10" s="19"/>
     </row>
     <row r="11">
@@ -1745,7 +1777,7 @@
       </c>
       <c r="F11" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G11" s="34" t="s">
         <v>41</v>
@@ -1795,10 +1827,18 @@
       <c r="V11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
+      <c r="W11" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X11" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z11" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA11" s="19"/>
     </row>
     <row r="12">
@@ -1818,7 +1858,7 @@
       </c>
       <c r="F12" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G12" s="34" t="s">
         <v>39</v>
@@ -1868,10 +1908,18 @@
       <c r="V12" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
+      <c r="W12" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X12" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y12" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z12" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA12" s="19"/>
     </row>
     <row r="13">
@@ -1891,7 +1939,7 @@
       </c>
       <c r="F13" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G13" s="34" t="s">
         <v>39</v>
@@ -1941,10 +1989,18 @@
       <c r="V13" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
+      <c r="W13" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X13" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y13" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z13" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA13" s="19"/>
     </row>
     <row r="14">
@@ -1960,11 +2016,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14" s="30">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" s="34" t="s">
         <v>39</v>
@@ -2014,10 +2070,18 @@
       <c r="V14" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
+      <c r="W14" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X14" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y14" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z14" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="AA14" s="19"/>
     </row>
     <row r="15">
@@ -2033,11 +2097,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G15" s="34" t="s">
         <v>39</v>
@@ -2087,10 +2151,18 @@
       <c r="V15" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
+      <c r="W15" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X15" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y15" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z15" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA15" s="19"/>
     </row>
     <row r="16">
@@ -2106,11 +2178,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="30">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G16" s="34" t="s">
         <v>39</v>
@@ -2160,10 +2232,18 @@
       <c r="V16" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
+      <c r="W16" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="X16" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y16" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z16" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA16" s="19"/>
     </row>
     <row r="17">
@@ -2183,7 +2263,7 @@
       </c>
       <c r="F17" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G17" s="34" t="s">
         <v>39</v>
@@ -2233,10 +2313,18 @@
       <c r="V17" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
+      <c r="W17" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X17" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z17" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA17" s="19"/>
     </row>
     <row r="18">
@@ -2256,7 +2344,7 @@
       </c>
       <c r="F18" s="30">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G18" s="34" t="s">
         <v>39</v>
@@ -2306,10 +2394,18 @@
       <c r="V18" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
+      <c r="W18" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X18" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y18" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z18" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA18" s="19"/>
     </row>
     <row r="19">
@@ -2325,11 +2421,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" s="30">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G19" s="34" t="s">
         <v>39</v>
@@ -2379,10 +2475,18 @@
       <c r="V19" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
+      <c r="W19" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X19" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y19" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z19" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA19" s="19"/>
     </row>
     <row r="20">
@@ -2398,11 +2502,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G20" s="34" t="s">
         <v>39</v>
@@ -2452,10 +2556,18 @@
       <c r="V20" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
+      <c r="W20" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="X20" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y20" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z20" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA20" s="19"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -2475,7 +2587,7 @@
       </c>
       <c r="F21" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G21" s="34" t="s">
         <v>39</v>
@@ -2525,10 +2637,18 @@
       <c r="V21" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
+      <c r="W21" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X21" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y21" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z21" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA21" s="19"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -2548,7 +2668,7 @@
       </c>
       <c r="F22" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G22" s="34" t="s">
         <v>39</v>
@@ -2598,10 +2718,18 @@
       <c r="V22" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
+      <c r="W22" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X22" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y22" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z22" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA22" s="19"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -2617,11 +2745,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G23" s="34" t="s">
         <v>39</v>
@@ -2671,10 +2799,18 @@
       <c r="V23" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
+      <c r="W23" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="X23" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y23" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z23" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA23" s="19"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -2690,11 +2826,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F24" s="30">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G24" s="34" t="s">
         <v>39</v>
@@ -2744,10 +2880,18 @@
       <c r="V24" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
+      <c r="W24" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="X24" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y24" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z24" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA24" s="19"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -2767,7 +2911,7 @@
       </c>
       <c r="F25" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G25" s="34" t="s">
         <v>39</v>
@@ -2817,10 +2961,18 @@
       <c r="V25" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
+      <c r="W25" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X25" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y25" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z25" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA25" s="19"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -2836,11 +2988,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F26" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G26" s="34" t="s">
         <v>39</v>
@@ -2890,10 +3042,18 @@
       <c r="V26" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
+      <c r="W26" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X26" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y26" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z26" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="AA26" s="19"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -2909,11 +3069,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" s="30">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G27" s="34" t="s">
         <v>39</v>
@@ -2963,10 +3123,18 @@
       <c r="V27" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
+      <c r="W27" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X27" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y27" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z27" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="AA27" s="19"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -2986,7 +3154,7 @@
       </c>
       <c r="F28" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G28" s="34" t="s">
         <v>39</v>
@@ -3028,7 +3196,7 @@
         <v>40</v>
       </c>
       <c r="T28" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U28" s="36" t="s">
         <v>40</v>
@@ -3036,10 +3204,18 @@
       <c r="V28" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
+      <c r="W28" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="X28" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y28" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z28" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA28" s="19"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -3055,11 +3231,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G29" s="34" t="s">
         <v>39</v>
@@ -3109,10 +3285,18 @@
       <c r="V29" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
+      <c r="W29" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="X29" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y29" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z29" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA29" s="19"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -3132,7 +3316,7 @@
       </c>
       <c r="F30" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G30" s="34" t="s">
         <v>39</v>
@@ -3182,10 +3366,18 @@
       <c r="V30" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
+      <c r="W30" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X30" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y30" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z30" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA30" s="19"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -3205,7 +3397,7 @@
       </c>
       <c r="F31" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G31" s="34" t="s">
         <v>39</v>
@@ -3255,10 +3447,18 @@
       <c r="V31" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
+      <c r="W31" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X31" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y31" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z31" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA31" s="19"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -3274,11 +3474,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" s="30">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G32" s="34" t="s">
         <v>39</v>
@@ -3328,10 +3528,18 @@
       <c r="V32" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
+      <c r="W32" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X32" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y32" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z32" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="AA32" s="19"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -3347,11 +3555,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G33" s="34" t="s">
         <v>39</v>
@@ -3401,10 +3609,18 @@
       <c r="V33" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
+      <c r="W33" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X33" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y33" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z33" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA33" s="19"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -3420,11 +3636,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34" s="30">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G34" s="34" t="s">
         <v>39</v>
@@ -3474,10 +3690,18 @@
       <c r="V34" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
+      <c r="W34" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="X34" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y34" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z34" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA34" s="19"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -3497,7 +3721,7 @@
       </c>
       <c r="F35" s="30">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G35" s="34" t="s">
         <v>39</v>
@@ -3547,10 +3771,18 @@
       <c r="V35" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="37"/>
+      <c r="W35" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X35" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y35" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z35" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA35" s="19"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -3570,7 +3802,7 @@
       </c>
       <c r="F36" s="30">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G36" s="34" t="s">
         <v>39</v>
@@ -3620,10 +3852,18 @@
       <c r="V36" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="37"/>
+      <c r="W36" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X36" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y36" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z36" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA36" s="19"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -3639,11 +3879,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G37" s="34" t="s">
         <v>39</v>
@@ -3693,10 +3933,18 @@
       <c r="V37" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
+      <c r="W37" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="X37" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y37" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z37" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA37" s="19"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -3716,7 +3964,7 @@
       </c>
       <c r="F38" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G38" s="34" t="s">
         <v>39</v>
@@ -3766,10 +4014,18 @@
       <c r="V38" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
+      <c r="W38" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X38" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y38" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z38" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA38" s="19"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -3785,11 +4041,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" s="30">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G39" s="34" t="s">
         <v>39</v>
@@ -3839,10 +4095,18 @@
       <c r="V39" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="37"/>
-      <c r="Z39" s="37"/>
+      <c r="W39" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X39" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y39" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z39" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA39" s="19"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -3862,7 +4126,7 @@
       </c>
       <c r="F40" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G40" s="34" t="s">
         <v>39</v>
@@ -3912,10 +4176,18 @@
       <c r="V40" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W40" s="37"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="37"/>
-      <c r="Z40" s="37"/>
+      <c r="W40" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X40" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y40" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z40" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA40" s="19"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -3931,11 +4203,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F41" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G41" s="34" t="s">
         <v>39</v>
@@ -3985,10 +4257,18 @@
       <c r="V41" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W41" s="37"/>
-      <c r="X41" s="37"/>
-      <c r="Y41" s="37"/>
-      <c r="Z41" s="37"/>
+      <c r="W41" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="X41" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y41" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z41" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA41" s="19"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -4008,7 +4288,7 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G42" s="34" t="s">
         <v>39</v>
@@ -4058,10 +4338,18 @@
       <c r="V42" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W42" s="37"/>
-      <c r="X42" s="37"/>
-      <c r="Y42" s="37"/>
-      <c r="Z42" s="37"/>
+      <c r="W42" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X42" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y42" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z42" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA42" s="19"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -4081,7 +4369,7 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G43" s="34" t="s">
         <v>39</v>
@@ -4131,10 +4419,18 @@
       <c r="V43" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W43" s="37"/>
-      <c r="X43" s="37"/>
-      <c r="Y43" s="37"/>
-      <c r="Z43" s="37"/>
+      <c r="W43" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X43" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y43" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z43" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA43" s="19"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -4154,7 +4450,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G44" s="34" t="s">
         <v>39</v>
@@ -4204,10 +4500,18 @@
       <c r="V44" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="37"/>
-      <c r="Z44" s="37"/>
+      <c r="W44" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X44" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y44" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z44" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA44" s="19"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -4223,11 +4527,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F45" s="30">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G45" s="34" t="s">
         <v>39</v>
@@ -4277,10 +4581,18 @@
       <c r="V45" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="37"/>
-      <c r="Z45" s="37"/>
+      <c r="W45" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="X45" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y45" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z45" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA45" s="19"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -4300,7 +4612,7 @@
       </c>
       <c r="F46" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G46" s="34" t="s">
         <v>39</v>
@@ -4350,10 +4662,18 @@
       <c r="V46" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="W46" s="37"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="37"/>
-      <c r="Z46" s="37"/>
+      <c r="W46" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X46" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y46" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z46" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA46" s="19"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -4369,11 +4689,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F47" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G47" s="34" t="s">
         <v>39</v>
@@ -4423,10 +4743,18 @@
       <c r="V47" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W47" s="37"/>
-      <c r="X47" s="37"/>
-      <c r="Y47" s="37"/>
-      <c r="Z47" s="37"/>
+      <c r="W47" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="X47" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y47" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z47" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA47" s="19"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -4442,11 +4770,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="30">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G48" s="34" t="s">
         <v>39</v>
@@ -4496,10 +4824,18 @@
       <c r="V48" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W48" s="37"/>
-      <c r="X48" s="37"/>
-      <c r="Y48" s="37"/>
-      <c r="Z48" s="37"/>
+      <c r="W48" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X48" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y48" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z48" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA48" s="19"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -4515,11 +4851,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G49" s="34" t="s">
         <v>39</v>
@@ -4569,10 +4905,18 @@
       <c r="V49" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W49" s="37"/>
-      <c r="X49" s="37"/>
-      <c r="Y49" s="37"/>
-      <c r="Z49" s="37"/>
+      <c r="W49" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X49" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y49" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z49" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA49" s="19"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -4592,7 +4936,7 @@
       </c>
       <c r="F50" s="30">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G50" s="34" t="s">
         <v>39</v>
@@ -4642,10 +4986,18 @@
       <c r="V50" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W50" s="37"/>
-      <c r="X50" s="37"/>
-      <c r="Y50" s="37"/>
-      <c r="Z50" s="37"/>
+      <c r="W50" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X50" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y50" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z50" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA50" s="19"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -4661,11 +5013,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F51" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G51" s="34" t="s">
         <v>39</v>
@@ -4715,10 +5067,18 @@
       <c r="V51" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W51" s="37"/>
-      <c r="X51" s="37"/>
-      <c r="Y51" s="37"/>
-      <c r="Z51" s="37"/>
+      <c r="W51" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="X51" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y51" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z51" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA51" s="19"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -4734,11 +5094,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F52" s="30">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G52" s="34" t="s">
         <v>39</v>
@@ -4788,10 +5148,18 @@
       <c r="V52" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="W52" s="37"/>
-      <c r="X52" s="37"/>
-      <c r="Y52" s="37"/>
-      <c r="Z52" s="37"/>
+      <c r="W52" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="X52" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y52" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z52" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA52" s="19"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -4807,11 +5175,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F53" s="30">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G53" s="34" t="s">
         <v>39</v>
@@ -4861,10 +5229,18 @@
       <c r="V53" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W53" s="37"/>
-      <c r="X53" s="37"/>
-      <c r="Y53" s="37"/>
-      <c r="Z53" s="37"/>
+      <c r="W53" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="X53" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y53" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z53" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA53" s="19"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -4880,11 +5256,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F54" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G54" s="34" t="s">
         <v>39</v>
@@ -4934,10 +5310,18 @@
       <c r="V54" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W54" s="37"/>
-      <c r="X54" s="37"/>
-      <c r="Y54" s="37"/>
-      <c r="Z54" s="37"/>
+      <c r="W54" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="X54" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y54" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z54" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA54" s="19"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -4957,7 +5341,7 @@
       </c>
       <c r="F55" s="30">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G55" s="34" t="s">
         <v>39</v>
@@ -5007,10 +5391,18 @@
       <c r="V55" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W55" s="37"/>
-      <c r="X55" s="37"/>
-      <c r="Y55" s="37"/>
-      <c r="Z55" s="37"/>
+      <c r="W55" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X55" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y55" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z55" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA55" s="19"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -5030,7 +5422,7 @@
       </c>
       <c r="F56" s="30">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G56" s="34" t="s">
         <v>39</v>
@@ -5080,10 +5472,18 @@
       <c r="V56" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W56" s="37"/>
-      <c r="X56" s="37"/>
-      <c r="Y56" s="37"/>
-      <c r="Z56" s="37"/>
+      <c r="W56" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X56" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y56" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z56" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA56" s="19"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -5103,7 +5503,7 @@
       </c>
       <c r="F57" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G57" s="34" t="s">
         <v>39</v>
@@ -5153,10 +5553,18 @@
       <c r="V57" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W57" s="37"/>
-      <c r="X57" s="37"/>
-      <c r="Y57" s="37"/>
-      <c r="Z57" s="37"/>
+      <c r="W57" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X57" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y57" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z57" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA57" s="19"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -5172,11 +5580,11 @@
       <c r="D58" s="33"/>
       <c r="E58" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F58" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G58" s="34" t="s">
         <v>39</v>
@@ -5226,10 +5634,18 @@
       <c r="V58" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W58" s="37"/>
-      <c r="X58" s="37"/>
-      <c r="Y58" s="37"/>
-      <c r="Z58" s="37"/>
+      <c r="W58" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="X58" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y58" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z58" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA58" s="19"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -5249,7 +5665,7 @@
       </c>
       <c r="F59" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G59" s="34" t="s">
         <v>39</v>
@@ -5299,10 +5715,18 @@
       <c r="V59" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W59" s="37"/>
-      <c r="X59" s="37"/>
-      <c r="Y59" s="37"/>
-      <c r="Z59" s="37"/>
+      <c r="W59" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X59" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y59" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z59" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA59" s="19"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -5322,7 +5746,7 @@
       </c>
       <c r="F60" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G60" s="34" t="s">
         <v>39</v>
@@ -5372,10 +5796,18 @@
       <c r="V60" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W60" s="37"/>
-      <c r="X60" s="37"/>
-      <c r="Y60" s="37"/>
-      <c r="Z60" s="37"/>
+      <c r="W60" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X60" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y60" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z60" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA60" s="19"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -5391,11 +5823,11 @@
       <c r="D61" s="33"/>
       <c r="E61" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F61" s="30">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G61" s="34" t="s">
         <v>39</v>
@@ -5445,10 +5877,18 @@
       <c r="V61" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W61" s="37"/>
-      <c r="X61" s="37"/>
-      <c r="Y61" s="37"/>
-      <c r="Z61" s="37"/>
+      <c r="W61" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="X61" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y61" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z61" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="AA61" s="19"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -5464,11 +5904,11 @@
       <c r="D62" s="33"/>
       <c r="E62" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F62" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G62" s="34" t="s">
         <v>39</v>
@@ -5518,18 +5958,26 @@
       <c r="V62" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W62" s="37"/>
-      <c r="X62" s="37"/>
-      <c r="Y62" s="37"/>
-      <c r="Z62" s="37"/>
+      <c r="W62" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="X62" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y62" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z62" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="AA62" s="19"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="30">
         <v>57.0</v>
       </c>
-      <c r="B63" s="38"/>
-      <c r="C63" s="39"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="38"/>
       <c r="D63" s="33"/>
       <c r="E63" s="30"/>
       <c r="F63" s="30"/>
@@ -5539,90 +5987,90 @@
       <c r="J63" s="30"/>
       <c r="K63" s="30"/>
       <c r="L63" s="30"/>
-      <c r="M63" s="40"/>
+      <c r="M63" s="39"/>
       <c r="N63" s="30"/>
       <c r="O63" s="30"/>
       <c r="P63" s="30"/>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="37"/>
-      <c r="S63" s="37"/>
-      <c r="T63" s="37"/>
-      <c r="U63" s="37"/>
-      <c r="V63" s="37"/>
-      <c r="W63" s="37"/>
-      <c r="X63" s="37"/>
-      <c r="Y63" s="37"/>
-      <c r="Z63" s="37"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="40"/>
+      <c r="S63" s="40"/>
+      <c r="T63" s="40"/>
+      <c r="U63" s="40"/>
+      <c r="V63" s="40"/>
+      <c r="W63" s="40"/>
+      <c r="X63" s="40"/>
+      <c r="Y63" s="40"/>
+      <c r="Z63" s="40"/>
       <c r="AA63" s="19"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="30">
         <v>58.0</v>
       </c>
-      <c r="B64" s="38"/>
-      <c r="C64" s="39"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="38"/>
       <c r="D64" s="33"/>
       <c r="E64" s="30"/>
       <c r="F64" s="30"/>
       <c r="G64" s="34"/>
       <c r="H64" s="35"/>
       <c r="I64" s="30"/>
-      <c r="J64" s="40"/>
+      <c r="J64" s="39"/>
       <c r="K64" s="30"/>
       <c r="L64" s="30"/>
       <c r="M64" s="30"/>
       <c r="N64" s="30"/>
       <c r="O64" s="30"/>
       <c r="P64" s="30"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="37"/>
-      <c r="S64" s="37"/>
-      <c r="T64" s="37"/>
-      <c r="U64" s="37"/>
-      <c r="V64" s="37"/>
-      <c r="W64" s="37"/>
-      <c r="X64" s="37"/>
-      <c r="Y64" s="37"/>
-      <c r="Z64" s="37"/>
+      <c r="Q64" s="40"/>
+      <c r="R64" s="40"/>
+      <c r="S64" s="40"/>
+      <c r="T64" s="40"/>
+      <c r="U64" s="40"/>
+      <c r="V64" s="40"/>
+      <c r="W64" s="40"/>
+      <c r="X64" s="40"/>
+      <c r="Y64" s="40"/>
+      <c r="Z64" s="40"/>
       <c r="AA64" s="19"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="30">
         <v>59.0</v>
       </c>
-      <c r="B65" s="38"/>
-      <c r="C65" s="39"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="38"/>
       <c r="D65" s="33"/>
       <c r="E65" s="30"/>
       <c r="F65" s="30"/>
       <c r="G65" s="34"/>
       <c r="H65" s="35"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="40"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
       <c r="K65" s="30"/>
       <c r="L65" s="30"/>
       <c r="M65" s="30"/>
       <c r="N65" s="30"/>
       <c r="O65" s="30"/>
       <c r="P65" s="30"/>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="37"/>
-      <c r="S65" s="37"/>
-      <c r="T65" s="37"/>
-      <c r="U65" s="37"/>
-      <c r="V65" s="37"/>
-      <c r="W65" s="37"/>
-      <c r="X65" s="37"/>
-      <c r="Y65" s="37"/>
-      <c r="Z65" s="37"/>
+      <c r="Q65" s="40"/>
+      <c r="R65" s="40"/>
+      <c r="S65" s="40"/>
+      <c r="T65" s="40"/>
+      <c r="U65" s="40"/>
+      <c r="V65" s="40"/>
+      <c r="W65" s="40"/>
+      <c r="X65" s="40"/>
+      <c r="Y65" s="40"/>
+      <c r="Z65" s="40"/>
       <c r="AA65" s="19"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="30">
         <v>60.0</v>
       </c>
-      <c r="B66" s="38"/>
-      <c r="C66" s="39"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="38"/>
       <c r="D66" s="33"/>
       <c r="E66" s="30"/>
       <c r="F66" s="30"/>
@@ -5631,29 +6079,29 @@
       <c r="I66" s="30"/>
       <c r="J66" s="30"/>
       <c r="K66" s="30"/>
-      <c r="L66" s="40"/>
+      <c r="L66" s="39"/>
       <c r="M66" s="30"/>
       <c r="N66" s="30"/>
       <c r="O66" s="30"/>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="37"/>
-      <c r="S66" s="37"/>
-      <c r="T66" s="37"/>
-      <c r="U66" s="37"/>
-      <c r="V66" s="37"/>
-      <c r="W66" s="37"/>
-      <c r="X66" s="37"/>
-      <c r="Y66" s="37"/>
-      <c r="Z66" s="37"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="40"/>
+      <c r="R66" s="40"/>
+      <c r="S66" s="40"/>
+      <c r="T66" s="40"/>
+      <c r="U66" s="40"/>
+      <c r="V66" s="40"/>
+      <c r="W66" s="40"/>
+      <c r="X66" s="40"/>
+      <c r="Y66" s="40"/>
+      <c r="Z66" s="40"/>
       <c r="AA66" s="19"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="30">
         <v>61.0</v>
       </c>
-      <c r="B67" s="38"/>
-      <c r="C67" s="39"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="38"/>
       <c r="D67" s="33"/>
       <c r="E67" s="30"/>
       <c r="F67" s="30"/>
@@ -5667,24 +6115,24 @@
       <c r="N67" s="30"/>
       <c r="O67" s="30"/>
       <c r="P67" s="30"/>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="37"/>
-      <c r="S67" s="37"/>
-      <c r="T67" s="37"/>
-      <c r="U67" s="37"/>
-      <c r="V67" s="37"/>
-      <c r="W67" s="37"/>
-      <c r="X67" s="37"/>
-      <c r="Y67" s="37"/>
-      <c r="Z67" s="37"/>
+      <c r="Q67" s="40"/>
+      <c r="R67" s="40"/>
+      <c r="S67" s="40"/>
+      <c r="T67" s="40"/>
+      <c r="U67" s="40"/>
+      <c r="V67" s="40"/>
+      <c r="W67" s="40"/>
+      <c r="X67" s="40"/>
+      <c r="Y67" s="40"/>
+      <c r="Z67" s="40"/>
       <c r="AA67" s="19"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="30">
         <v>62.0</v>
       </c>
-      <c r="B68" s="38"/>
-      <c r="C68" s="39"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="38"/>
       <c r="D68" s="33"/>
       <c r="E68" s="30"/>
       <c r="F68" s="30"/>
@@ -5698,24 +6146,24 @@
       <c r="N68" s="30"/>
       <c r="O68" s="30"/>
       <c r="P68" s="30"/>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="37"/>
-      <c r="S68" s="37"/>
-      <c r="T68" s="37"/>
-      <c r="U68" s="37"/>
-      <c r="V68" s="37"/>
-      <c r="W68" s="37"/>
-      <c r="X68" s="37"/>
-      <c r="Y68" s="37"/>
-      <c r="Z68" s="37"/>
+      <c r="Q68" s="40"/>
+      <c r="R68" s="40"/>
+      <c r="S68" s="40"/>
+      <c r="T68" s="40"/>
+      <c r="U68" s="40"/>
+      <c r="V68" s="40"/>
+      <c r="W68" s="40"/>
+      <c r="X68" s="40"/>
+      <c r="Y68" s="40"/>
+      <c r="Z68" s="40"/>
       <c r="AA68" s="19"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="30">
         <v>63.0</v>
       </c>
-      <c r="B69" s="38"/>
-      <c r="C69" s="39"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="38"/>
       <c r="D69" s="33"/>
       <c r="E69" s="30"/>
       <c r="F69" s="30"/>
@@ -5725,34 +6173,34 @@
       <c r="J69" s="30"/>
       <c r="K69" s="30"/>
       <c r="L69" s="30"/>
-      <c r="M69" s="40"/>
+      <c r="M69" s="39"/>
       <c r="N69" s="30"/>
       <c r="O69" s="30"/>
       <c r="P69" s="30"/>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="37"/>
-      <c r="S69" s="37"/>
-      <c r="T69" s="37"/>
-      <c r="U69" s="37"/>
-      <c r="V69" s="37"/>
-      <c r="W69" s="37"/>
-      <c r="X69" s="37"/>
-      <c r="Y69" s="37"/>
-      <c r="Z69" s="37"/>
+      <c r="Q69" s="40"/>
+      <c r="R69" s="40"/>
+      <c r="S69" s="40"/>
+      <c r="T69" s="40"/>
+      <c r="U69" s="40"/>
+      <c r="V69" s="40"/>
+      <c r="W69" s="40"/>
+      <c r="X69" s="40"/>
+      <c r="Y69" s="40"/>
+      <c r="Z69" s="40"/>
       <c r="AA69" s="19"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="30">
         <v>64.0</v>
       </c>
-      <c r="B70" s="38"/>
-      <c r="C70" s="39"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="38"/>
       <c r="D70" s="33"/>
       <c r="E70" s="30"/>
       <c r="F70" s="30"/>
       <c r="G70" s="34"/>
       <c r="H70" s="35"/>
-      <c r="I70" s="40"/>
+      <c r="I70" s="39"/>
       <c r="J70" s="30"/>
       <c r="K70" s="30"/>
       <c r="L70" s="30"/>
@@ -5760,24 +6208,24 @@
       <c r="N70" s="30"/>
       <c r="O70" s="30"/>
       <c r="P70" s="30"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="37"/>
-      <c r="S70" s="37"/>
-      <c r="T70" s="37"/>
-      <c r="U70" s="37"/>
-      <c r="V70" s="37"/>
-      <c r="W70" s="37"/>
-      <c r="X70" s="37"/>
-      <c r="Y70" s="37"/>
-      <c r="Z70" s="37"/>
+      <c r="Q70" s="40"/>
+      <c r="R70" s="40"/>
+      <c r="S70" s="40"/>
+      <c r="T70" s="40"/>
+      <c r="U70" s="40"/>
+      <c r="V70" s="40"/>
+      <c r="W70" s="40"/>
+      <c r="X70" s="40"/>
+      <c r="Y70" s="40"/>
+      <c r="Z70" s="40"/>
       <c r="AA70" s="19"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="30">
         <v>65.0</v>
       </c>
-      <c r="B71" s="38"/>
-      <c r="C71" s="39"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="38"/>
       <c r="D71" s="33"/>
       <c r="E71" s="30"/>
       <c r="F71" s="30"/>
@@ -5788,27 +6236,27 @@
       <c r="K71" s="30"/>
       <c r="L71" s="30"/>
       <c r="M71" s="30"/>
-      <c r="N71" s="40"/>
+      <c r="N71" s="39"/>
       <c r="O71" s="30"/>
       <c r="P71" s="30"/>
-      <c r="Q71" s="37"/>
-      <c r="R71" s="37"/>
-      <c r="S71" s="37"/>
-      <c r="T71" s="37"/>
-      <c r="U71" s="37"/>
-      <c r="V71" s="37"/>
-      <c r="W71" s="37"/>
-      <c r="X71" s="37"/>
-      <c r="Y71" s="37"/>
-      <c r="Z71" s="37"/>
+      <c r="Q71" s="40"/>
+      <c r="R71" s="40"/>
+      <c r="S71" s="40"/>
+      <c r="T71" s="40"/>
+      <c r="U71" s="40"/>
+      <c r="V71" s="40"/>
+      <c r="W71" s="40"/>
+      <c r="X71" s="40"/>
+      <c r="Y71" s="40"/>
+      <c r="Z71" s="40"/>
       <c r="AA71" s="19"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="30">
         <v>66.0</v>
       </c>
-      <c r="B72" s="38"/>
-      <c r="C72" s="39"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="38"/>
       <c r="D72" s="33"/>
       <c r="E72" s="30"/>
       <c r="F72" s="30"/>
@@ -5818,59 +6266,59 @@
       <c r="J72" s="30"/>
       <c r="K72" s="30"/>
       <c r="L72" s="30"/>
-      <c r="M72" s="40"/>
-      <c r="N72" s="40"/>
+      <c r="M72" s="39"/>
+      <c r="N72" s="39"/>
       <c r="O72" s="30"/>
       <c r="P72" s="30"/>
-      <c r="Q72" s="37"/>
-      <c r="R72" s="37"/>
-      <c r="S72" s="37"/>
-      <c r="T72" s="37"/>
-      <c r="U72" s="37"/>
-      <c r="V72" s="37"/>
-      <c r="W72" s="37"/>
-      <c r="X72" s="37"/>
-      <c r="Y72" s="37"/>
-      <c r="Z72" s="37"/>
+      <c r="Q72" s="40"/>
+      <c r="R72" s="40"/>
+      <c r="S72" s="40"/>
+      <c r="T72" s="40"/>
+      <c r="U72" s="40"/>
+      <c r="V72" s="40"/>
+      <c r="W72" s="40"/>
+      <c r="X72" s="40"/>
+      <c r="Y72" s="40"/>
+      <c r="Z72" s="40"/>
       <c r="AA72" s="19"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="30">
         <v>67.0</v>
       </c>
-      <c r="B73" s="38"/>
-      <c r="C73" s="39"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="38"/>
       <c r="D73" s="33"/>
       <c r="E73" s="30"/>
       <c r="F73" s="30"/>
       <c r="G73" s="34"/>
       <c r="H73" s="35"/>
       <c r="I73" s="30"/>
-      <c r="J73" s="40"/>
+      <c r="J73" s="39"/>
       <c r="K73" s="30"/>
-      <c r="L73" s="40"/>
+      <c r="L73" s="39"/>
       <c r="M73" s="30"/>
       <c r="N73" s="30"/>
       <c r="O73" s="30"/>
       <c r="P73" s="30"/>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="37"/>
-      <c r="S73" s="37"/>
-      <c r="T73" s="37"/>
-      <c r="U73" s="37"/>
-      <c r="V73" s="37"/>
-      <c r="W73" s="37"/>
-      <c r="X73" s="37"/>
-      <c r="Y73" s="37"/>
-      <c r="Z73" s="37"/>
+      <c r="Q73" s="40"/>
+      <c r="R73" s="40"/>
+      <c r="S73" s="40"/>
+      <c r="T73" s="40"/>
+      <c r="U73" s="40"/>
+      <c r="V73" s="40"/>
+      <c r="W73" s="40"/>
+      <c r="X73" s="40"/>
+      <c r="Y73" s="40"/>
+      <c r="Z73" s="40"/>
       <c r="AA73" s="19"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="30">
         <v>68.0</v>
       </c>
-      <c r="B74" s="38"/>
-      <c r="C74" s="39"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="38"/>
       <c r="D74" s="33"/>
       <c r="E74" s="30"/>
       <c r="F74" s="30"/>
@@ -5884,24 +6332,24 @@
       <c r="N74" s="30"/>
       <c r="O74" s="30"/>
       <c r="P74" s="30"/>
-      <c r="Q74" s="37"/>
-      <c r="R74" s="37"/>
-      <c r="S74" s="37"/>
-      <c r="T74" s="37"/>
-      <c r="U74" s="37"/>
-      <c r="V74" s="37"/>
-      <c r="W74" s="37"/>
-      <c r="X74" s="37"/>
-      <c r="Y74" s="37"/>
-      <c r="Z74" s="37"/>
+      <c r="Q74" s="40"/>
+      <c r="R74" s="40"/>
+      <c r="S74" s="40"/>
+      <c r="T74" s="40"/>
+      <c r="U74" s="40"/>
+      <c r="V74" s="40"/>
+      <c r="W74" s="40"/>
+      <c r="X74" s="40"/>
+      <c r="Y74" s="40"/>
+      <c r="Z74" s="40"/>
       <c r="AA74" s="19"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="30">
         <v>69.0</v>
       </c>
-      <c r="B75" s="38"/>
-      <c r="C75" s="39"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="38"/>
       <c r="D75" s="33"/>
       <c r="E75" s="30"/>
       <c r="F75" s="30"/>
@@ -5909,30 +6357,30 @@
       <c r="H75" s="35"/>
       <c r="I75" s="30"/>
       <c r="J75" s="30"/>
-      <c r="K75" s="40"/>
+      <c r="K75" s="39"/>
       <c r="L75" s="30"/>
-      <c r="M75" s="40"/>
+      <c r="M75" s="39"/>
       <c r="N75" s="30"/>
       <c r="O75" s="30"/>
       <c r="P75" s="30"/>
-      <c r="Q75" s="37"/>
-      <c r="R75" s="37"/>
-      <c r="S75" s="37"/>
-      <c r="T75" s="37"/>
-      <c r="U75" s="37"/>
-      <c r="V75" s="37"/>
-      <c r="W75" s="37"/>
-      <c r="X75" s="37"/>
-      <c r="Y75" s="37"/>
-      <c r="Z75" s="37"/>
+      <c r="Q75" s="40"/>
+      <c r="R75" s="40"/>
+      <c r="S75" s="40"/>
+      <c r="T75" s="40"/>
+      <c r="U75" s="40"/>
+      <c r="V75" s="40"/>
+      <c r="W75" s="40"/>
+      <c r="X75" s="40"/>
+      <c r="Y75" s="40"/>
+      <c r="Z75" s="40"/>
       <c r="AA75" s="19"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="30">
         <v>70.0</v>
       </c>
-      <c r="B76" s="38"/>
-      <c r="C76" s="39"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="38"/>
       <c r="D76" s="33"/>
       <c r="E76" s="30"/>
       <c r="F76" s="30"/>
@@ -5943,58 +6391,58 @@
       <c r="K76" s="30"/>
       <c r="L76" s="30"/>
       <c r="M76" s="30"/>
-      <c r="N76" s="40"/>
+      <c r="N76" s="39"/>
       <c r="O76" s="30"/>
       <c r="P76" s="30"/>
-      <c r="Q76" s="37"/>
-      <c r="R76" s="37"/>
-      <c r="S76" s="37"/>
-      <c r="T76" s="37"/>
-      <c r="U76" s="37"/>
-      <c r="V76" s="37"/>
-      <c r="W76" s="37"/>
-      <c r="X76" s="37"/>
-      <c r="Y76" s="37"/>
-      <c r="Z76" s="37"/>
+      <c r="Q76" s="40"/>
+      <c r="R76" s="40"/>
+      <c r="S76" s="40"/>
+      <c r="T76" s="40"/>
+      <c r="U76" s="40"/>
+      <c r="V76" s="40"/>
+      <c r="W76" s="40"/>
+      <c r="X76" s="40"/>
+      <c r="Y76" s="40"/>
+      <c r="Z76" s="40"/>
       <c r="AA76" s="19"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="30">
         <v>71.0</v>
       </c>
-      <c r="B77" s="38"/>
-      <c r="C77" s="39"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="38"/>
       <c r="D77" s="33"/>
       <c r="E77" s="30"/>
       <c r="F77" s="30"/>
       <c r="G77" s="34"/>
       <c r="H77" s="35"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="40"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="39"/>
       <c r="K77" s="30"/>
       <c r="L77" s="30"/>
       <c r="M77" s="30"/>
       <c r="N77" s="30"/>
-      <c r="O77" s="40"/>
-      <c r="P77" s="40"/>
-      <c r="Q77" s="37"/>
-      <c r="R77" s="37"/>
-      <c r="S77" s="37"/>
-      <c r="T77" s="37"/>
-      <c r="U77" s="37"/>
-      <c r="V77" s="37"/>
-      <c r="W77" s="37"/>
-      <c r="X77" s="37"/>
-      <c r="Y77" s="37"/>
-      <c r="Z77" s="37"/>
+      <c r="O77" s="39"/>
+      <c r="P77" s="39"/>
+      <c r="Q77" s="40"/>
+      <c r="R77" s="40"/>
+      <c r="S77" s="40"/>
+      <c r="T77" s="40"/>
+      <c r="U77" s="40"/>
+      <c r="V77" s="40"/>
+      <c r="W77" s="40"/>
+      <c r="X77" s="40"/>
+      <c r="Y77" s="40"/>
+      <c r="Z77" s="40"/>
       <c r="AA77" s="19"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="30">
         <v>72.0</v>
       </c>
-      <c r="B78" s="38"/>
-      <c r="C78" s="39"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="38"/>
       <c r="D78" s="33"/>
       <c r="E78" s="30"/>
       <c r="F78" s="30"/>
@@ -6005,27 +6453,27 @@
       <c r="K78" s="30"/>
       <c r="L78" s="30"/>
       <c r="M78" s="30"/>
-      <c r="N78" s="40"/>
+      <c r="N78" s="39"/>
       <c r="O78" s="30"/>
       <c r="P78" s="30"/>
-      <c r="Q78" s="37"/>
-      <c r="R78" s="37"/>
-      <c r="S78" s="37"/>
-      <c r="T78" s="37"/>
-      <c r="U78" s="37"/>
-      <c r="V78" s="37"/>
-      <c r="W78" s="37"/>
-      <c r="X78" s="37"/>
-      <c r="Y78" s="37"/>
-      <c r="Z78" s="37"/>
+      <c r="Q78" s="40"/>
+      <c r="R78" s="40"/>
+      <c r="S78" s="40"/>
+      <c r="T78" s="40"/>
+      <c r="U78" s="40"/>
+      <c r="V78" s="40"/>
+      <c r="W78" s="40"/>
+      <c r="X78" s="40"/>
+      <c r="Y78" s="40"/>
+      <c r="Z78" s="40"/>
       <c r="AA78" s="19"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="30">
         <v>73.0</v>
       </c>
-      <c r="B79" s="38"/>
-      <c r="C79" s="39"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="38"/>
       <c r="D79" s="33"/>
       <c r="E79" s="30"/>
       <c r="F79" s="30"/>
@@ -6038,25 +6486,25 @@
       <c r="M79" s="30"/>
       <c r="N79" s="30"/>
       <c r="O79" s="30"/>
-      <c r="P79" s="40"/>
-      <c r="Q79" s="37"/>
-      <c r="R79" s="37"/>
-      <c r="S79" s="37"/>
-      <c r="T79" s="37"/>
-      <c r="U79" s="37"/>
-      <c r="V79" s="37"/>
-      <c r="W79" s="37"/>
-      <c r="X79" s="37"/>
-      <c r="Y79" s="37"/>
-      <c r="Z79" s="37"/>
+      <c r="P79" s="39"/>
+      <c r="Q79" s="40"/>
+      <c r="R79" s="40"/>
+      <c r="S79" s="40"/>
+      <c r="T79" s="40"/>
+      <c r="U79" s="40"/>
+      <c r="V79" s="40"/>
+      <c r="W79" s="40"/>
+      <c r="X79" s="40"/>
+      <c r="Y79" s="40"/>
+      <c r="Z79" s="40"/>
       <c r="AA79" s="19"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="30">
         <v>74.0</v>
       </c>
-      <c r="B80" s="38"/>
-      <c r="C80" s="39"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="38"/>
       <c r="D80" s="33"/>
       <c r="E80" s="30"/>
       <c r="F80" s="30"/>
@@ -6065,29 +6513,29 @@
       <c r="I80" s="30"/>
       <c r="J80" s="30"/>
       <c r="K80" s="30"/>
-      <c r="L80" s="40"/>
-      <c r="M80" s="40"/>
+      <c r="L80" s="39"/>
+      <c r="M80" s="39"/>
       <c r="N80" s="30"/>
       <c r="O80" s="30"/>
       <c r="P80" s="30"/>
-      <c r="Q80" s="37"/>
-      <c r="R80" s="37"/>
-      <c r="S80" s="37"/>
-      <c r="T80" s="37"/>
-      <c r="U80" s="37"/>
-      <c r="V80" s="37"/>
-      <c r="W80" s="37"/>
-      <c r="X80" s="37"/>
-      <c r="Y80" s="37"/>
-      <c r="Z80" s="37"/>
+      <c r="Q80" s="40"/>
+      <c r="R80" s="40"/>
+      <c r="S80" s="40"/>
+      <c r="T80" s="40"/>
+      <c r="U80" s="40"/>
+      <c r="V80" s="40"/>
+      <c r="W80" s="40"/>
+      <c r="X80" s="40"/>
+      <c r="Y80" s="40"/>
+      <c r="Z80" s="40"/>
       <c r="AA80" s="19"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="30">
         <v>75.0</v>
       </c>
-      <c r="B81" s="38"/>
-      <c r="C81" s="39"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="38"/>
       <c r="D81" s="33"/>
       <c r="E81" s="30"/>
       <c r="F81" s="30"/>
@@ -6100,87 +6548,87 @@
       <c r="M81" s="30"/>
       <c r="N81" s="30"/>
       <c r="O81" s="30"/>
-      <c r="P81" s="40"/>
-      <c r="Q81" s="37"/>
-      <c r="R81" s="37"/>
-      <c r="S81" s="37"/>
-      <c r="T81" s="37"/>
-      <c r="U81" s="37"/>
-      <c r="V81" s="37"/>
-      <c r="W81" s="37"/>
-      <c r="X81" s="37"/>
-      <c r="Y81" s="37"/>
-      <c r="Z81" s="37"/>
+      <c r="P81" s="39"/>
+      <c r="Q81" s="40"/>
+      <c r="R81" s="40"/>
+      <c r="S81" s="40"/>
+      <c r="T81" s="40"/>
+      <c r="U81" s="40"/>
+      <c r="V81" s="40"/>
+      <c r="W81" s="40"/>
+      <c r="X81" s="40"/>
+      <c r="Y81" s="40"/>
+      <c r="Z81" s="40"/>
       <c r="AA81" s="19"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="30">
         <v>76.0</v>
       </c>
-      <c r="B82" s="38"/>
-      <c r="C82" s="39"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="38"/>
       <c r="D82" s="33"/>
       <c r="E82" s="30"/>
       <c r="F82" s="30"/>
       <c r="G82" s="34"/>
       <c r="H82" s="35"/>
       <c r="I82" s="30"/>
-      <c r="J82" s="40"/>
-      <c r="K82" s="40"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="39"/>
       <c r="L82" s="30"/>
       <c r="M82" s="30"/>
       <c r="N82" s="30"/>
       <c r="O82" s="30"/>
       <c r="P82" s="30"/>
-      <c r="Q82" s="37"/>
-      <c r="R82" s="37"/>
-      <c r="S82" s="37"/>
-      <c r="T82" s="37"/>
-      <c r="U82" s="37"/>
-      <c r="V82" s="37"/>
-      <c r="W82" s="37"/>
-      <c r="X82" s="37"/>
-      <c r="Y82" s="37"/>
-      <c r="Z82" s="37"/>
+      <c r="Q82" s="40"/>
+      <c r="R82" s="40"/>
+      <c r="S82" s="40"/>
+      <c r="T82" s="40"/>
+      <c r="U82" s="40"/>
+      <c r="V82" s="40"/>
+      <c r="W82" s="40"/>
+      <c r="X82" s="40"/>
+      <c r="Y82" s="40"/>
+      <c r="Z82" s="40"/>
       <c r="AA82" s="19"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="30">
         <v>77.0</v>
       </c>
-      <c r="B83" s="38"/>
-      <c r="C83" s="39"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="38"/>
       <c r="D83" s="33"/>
       <c r="E83" s="30"/>
       <c r="F83" s="30"/>
       <c r="G83" s="34"/>
       <c r="H83" s="35"/>
       <c r="I83" s="30"/>
-      <c r="J83" s="40"/>
+      <c r="J83" s="39"/>
       <c r="K83" s="30"/>
-      <c r="L83" s="40"/>
+      <c r="L83" s="39"/>
       <c r="M83" s="30"/>
       <c r="N83" s="30"/>
       <c r="O83" s="30"/>
       <c r="P83" s="30"/>
-      <c r="Q83" s="37"/>
-      <c r="R83" s="37"/>
-      <c r="S83" s="37"/>
-      <c r="T83" s="37"/>
-      <c r="U83" s="37"/>
-      <c r="V83" s="37"/>
-      <c r="W83" s="37"/>
-      <c r="X83" s="37"/>
-      <c r="Y83" s="37"/>
-      <c r="Z83" s="37"/>
+      <c r="Q83" s="40"/>
+      <c r="R83" s="40"/>
+      <c r="S83" s="40"/>
+      <c r="T83" s="40"/>
+      <c r="U83" s="40"/>
+      <c r="V83" s="40"/>
+      <c r="W83" s="40"/>
+      <c r="X83" s="40"/>
+      <c r="Y83" s="40"/>
+      <c r="Z83" s="40"/>
       <c r="AA83" s="19"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="30">
         <v>78.0</v>
       </c>
-      <c r="B84" s="38"/>
-      <c r="C84" s="39"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="38"/>
       <c r="D84" s="33"/>
       <c r="E84" s="30"/>
       <c r="F84" s="30"/>
@@ -6189,60 +6637,60 @@
       <c r="I84" s="30"/>
       <c r="J84" s="30"/>
       <c r="K84" s="30"/>
-      <c r="L84" s="40"/>
-      <c r="M84" s="40"/>
+      <c r="L84" s="39"/>
+      <c r="M84" s="39"/>
       <c r="N84" s="30"/>
       <c r="O84" s="30"/>
       <c r="P84" s="30"/>
-      <c r="Q84" s="37"/>
-      <c r="R84" s="37"/>
-      <c r="S84" s="37"/>
-      <c r="T84" s="37"/>
-      <c r="U84" s="37"/>
-      <c r="V84" s="37"/>
-      <c r="W84" s="37"/>
-      <c r="X84" s="37"/>
-      <c r="Y84" s="37"/>
-      <c r="Z84" s="37"/>
+      <c r="Q84" s="40"/>
+      <c r="R84" s="40"/>
+      <c r="S84" s="40"/>
+      <c r="T84" s="40"/>
+      <c r="U84" s="40"/>
+      <c r="V84" s="40"/>
+      <c r="W84" s="40"/>
+      <c r="X84" s="40"/>
+      <c r="Y84" s="40"/>
+      <c r="Z84" s="40"/>
       <c r="AA84" s="19"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="30">
         <v>79.0</v>
       </c>
-      <c r="B85" s="38"/>
-      <c r="C85" s="39"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="38"/>
       <c r="D85" s="33"/>
       <c r="E85" s="30"/>
       <c r="F85" s="30"/>
       <c r="G85" s="34"/>
       <c r="H85" s="35"/>
-      <c r="I85" s="40"/>
+      <c r="I85" s="39"/>
       <c r="J85" s="30"/>
       <c r="K85" s="30"/>
       <c r="L85" s="30"/>
       <c r="M85" s="30"/>
-      <c r="N85" s="40"/>
+      <c r="N85" s="39"/>
       <c r="O85" s="30"/>
       <c r="P85" s="30"/>
-      <c r="Q85" s="37"/>
-      <c r="R85" s="37"/>
-      <c r="S85" s="37"/>
-      <c r="T85" s="37"/>
-      <c r="U85" s="37"/>
-      <c r="V85" s="37"/>
-      <c r="W85" s="37"/>
-      <c r="X85" s="37"/>
-      <c r="Y85" s="37"/>
-      <c r="Z85" s="37"/>
+      <c r="Q85" s="40"/>
+      <c r="R85" s="40"/>
+      <c r="S85" s="40"/>
+      <c r="T85" s="40"/>
+      <c r="U85" s="40"/>
+      <c r="V85" s="40"/>
+      <c r="W85" s="40"/>
+      <c r="X85" s="40"/>
+      <c r="Y85" s="40"/>
+      <c r="Z85" s="40"/>
       <c r="AA85" s="19"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="30">
         <v>80.0</v>
       </c>
-      <c r="B86" s="38"/>
-      <c r="C86" s="39"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="38"/>
       <c r="D86" s="33"/>
       <c r="E86" s="30"/>
       <c r="F86" s="30"/>
@@ -6251,29 +6699,29 @@
       <c r="I86" s="30"/>
       <c r="J86" s="30"/>
       <c r="K86" s="30"/>
-      <c r="L86" s="40"/>
+      <c r="L86" s="39"/>
       <c r="M86" s="30"/>
-      <c r="N86" s="40"/>
+      <c r="N86" s="39"/>
       <c r="O86" s="30"/>
       <c r="P86" s="30"/>
-      <c r="Q86" s="37"/>
-      <c r="R86" s="37"/>
-      <c r="S86" s="37"/>
-      <c r="T86" s="37"/>
-      <c r="U86" s="37"/>
-      <c r="V86" s="37"/>
-      <c r="W86" s="37"/>
-      <c r="X86" s="37"/>
-      <c r="Y86" s="37"/>
-      <c r="Z86" s="37"/>
+      <c r="Q86" s="40"/>
+      <c r="R86" s="40"/>
+      <c r="S86" s="40"/>
+      <c r="T86" s="40"/>
+      <c r="U86" s="40"/>
+      <c r="V86" s="40"/>
+      <c r="W86" s="40"/>
+      <c r="X86" s="40"/>
+      <c r="Y86" s="40"/>
+      <c r="Z86" s="40"/>
       <c r="AA86" s="19"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="30">
         <v>81.0</v>
       </c>
-      <c r="B87" s="37"/>
-      <c r="C87" s="37"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
       <c r="D87" s="33"/>
       <c r="E87" s="30"/>
       <c r="F87" s="30"/>
@@ -6287,24 +6735,24 @@
       <c r="N87" s="33"/>
       <c r="O87" s="33"/>
       <c r="P87" s="33"/>
-      <c r="Q87" s="37"/>
-      <c r="R87" s="37"/>
-      <c r="S87" s="37"/>
-      <c r="T87" s="37"/>
-      <c r="U87" s="37"/>
-      <c r="V87" s="37"/>
-      <c r="W87" s="37"/>
-      <c r="X87" s="37"/>
-      <c r="Y87" s="37"/>
-      <c r="Z87" s="37"/>
+      <c r="Q87" s="40"/>
+      <c r="R87" s="40"/>
+      <c r="S87" s="40"/>
+      <c r="T87" s="40"/>
+      <c r="U87" s="40"/>
+      <c r="V87" s="40"/>
+      <c r="W87" s="40"/>
+      <c r="X87" s="40"/>
+      <c r="Y87" s="40"/>
+      <c r="Z87" s="40"/>
       <c r="AA87" s="19"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="30">
         <v>82.0</v>
       </c>
-      <c r="B88" s="37"/>
-      <c r="C88" s="37"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
       <c r="D88" s="33"/>
       <c r="E88" s="30"/>
       <c r="F88" s="30"/>
@@ -6318,24 +6766,24 @@
       <c r="N88" s="33"/>
       <c r="O88" s="33"/>
       <c r="P88" s="33"/>
-      <c r="Q88" s="37"/>
-      <c r="R88" s="37"/>
-      <c r="S88" s="37"/>
-      <c r="T88" s="37"/>
-      <c r="U88" s="37"/>
-      <c r="V88" s="37"/>
-      <c r="W88" s="37"/>
-      <c r="X88" s="37"/>
-      <c r="Y88" s="37"/>
-      <c r="Z88" s="37"/>
+      <c r="Q88" s="40"/>
+      <c r="R88" s="40"/>
+      <c r="S88" s="40"/>
+      <c r="T88" s="40"/>
+      <c r="U88" s="40"/>
+      <c r="V88" s="40"/>
+      <c r="W88" s="40"/>
+      <c r="X88" s="40"/>
+      <c r="Y88" s="40"/>
+      <c r="Z88" s="40"/>
       <c r="AA88" s="19"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="30">
         <v>83.0</v>
       </c>
-      <c r="B89" s="37"/>
-      <c r="C89" s="37"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="40"/>
       <c r="D89" s="33"/>
       <c r="E89" s="30"/>
       <c r="F89" s="30"/>
@@ -6349,24 +6797,24 @@
       <c r="N89" s="33"/>
       <c r="O89" s="33"/>
       <c r="P89" s="33"/>
-      <c r="Q89" s="37"/>
-      <c r="R89" s="37"/>
-      <c r="S89" s="37"/>
-      <c r="T89" s="37"/>
-      <c r="U89" s="37"/>
-      <c r="V89" s="37"/>
-      <c r="W89" s="37"/>
-      <c r="X89" s="37"/>
-      <c r="Y89" s="37"/>
-      <c r="Z89" s="37"/>
+      <c r="Q89" s="40"/>
+      <c r="R89" s="40"/>
+      <c r="S89" s="40"/>
+      <c r="T89" s="40"/>
+      <c r="U89" s="40"/>
+      <c r="V89" s="40"/>
+      <c r="W89" s="40"/>
+      <c r="X89" s="40"/>
+      <c r="Y89" s="40"/>
+      <c r="Z89" s="40"/>
       <c r="AA89" s="19"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="30">
         <v>84.0</v>
       </c>
-      <c r="B90" s="37"/>
-      <c r="C90" s="37"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="40"/>
       <c r="D90" s="33"/>
       <c r="E90" s="30"/>
       <c r="F90" s="30"/>
@@ -6380,24 +6828,24 @@
       <c r="N90" s="33"/>
       <c r="O90" s="33"/>
       <c r="P90" s="33"/>
-      <c r="Q90" s="37"/>
-      <c r="R90" s="37"/>
-      <c r="S90" s="37"/>
-      <c r="T90" s="37"/>
-      <c r="U90" s="37"/>
-      <c r="V90" s="37"/>
-      <c r="W90" s="37"/>
-      <c r="X90" s="37"/>
-      <c r="Y90" s="37"/>
-      <c r="Z90" s="37"/>
+      <c r="Q90" s="40"/>
+      <c r="R90" s="40"/>
+      <c r="S90" s="40"/>
+      <c r="T90" s="40"/>
+      <c r="U90" s="40"/>
+      <c r="V90" s="40"/>
+      <c r="W90" s="40"/>
+      <c r="X90" s="40"/>
+      <c r="Y90" s="40"/>
+      <c r="Z90" s="40"/>
       <c r="AA90" s="19"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="30">
         <v>85.0</v>
       </c>
-      <c r="B91" s="37"/>
-      <c r="C91" s="37"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="40"/>
       <c r="D91" s="33"/>
       <c r="E91" s="30"/>
       <c r="F91" s="30"/>
@@ -6411,24 +6859,24 @@
       <c r="N91" s="33"/>
       <c r="O91" s="33"/>
       <c r="P91" s="33"/>
-      <c r="Q91" s="37"/>
-      <c r="R91" s="37"/>
-      <c r="S91" s="37"/>
-      <c r="T91" s="37"/>
-      <c r="U91" s="37"/>
-      <c r="V91" s="37"/>
-      <c r="W91" s="37"/>
-      <c r="X91" s="37"/>
-      <c r="Y91" s="37"/>
-      <c r="Z91" s="37"/>
+      <c r="Q91" s="40"/>
+      <c r="R91" s="40"/>
+      <c r="S91" s="40"/>
+      <c r="T91" s="40"/>
+      <c r="U91" s="40"/>
+      <c r="V91" s="40"/>
+      <c r="W91" s="40"/>
+      <c r="X91" s="40"/>
+      <c r="Y91" s="40"/>
+      <c r="Z91" s="40"/>
       <c r="AA91" s="19"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="30">
         <v>86.0</v>
       </c>
-      <c r="B92" s="37"/>
-      <c r="C92" s="37"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="40"/>
       <c r="D92" s="33"/>
       <c r="E92" s="30"/>
       <c r="F92" s="30"/>
@@ -6442,16 +6890,16 @@
       <c r="N92" s="33"/>
       <c r="O92" s="33"/>
       <c r="P92" s="33"/>
-      <c r="Q92" s="37"/>
-      <c r="R92" s="37"/>
-      <c r="S92" s="37"/>
-      <c r="T92" s="37"/>
-      <c r="U92" s="37"/>
-      <c r="V92" s="37"/>
-      <c r="W92" s="37"/>
-      <c r="X92" s="37"/>
-      <c r="Y92" s="37"/>
-      <c r="Z92" s="37"/>
+      <c r="Q92" s="40"/>
+      <c r="R92" s="40"/>
+      <c r="S92" s="40"/>
+      <c r="T92" s="40"/>
+      <c r="U92" s="40"/>
+      <c r="V92" s="40"/>
+      <c r="W92" s="40"/>
+      <c r="X92" s="40"/>
+      <c r="Y92" s="40"/>
+      <c r="Z92" s="40"/>
       <c r="AA92" s="19"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
